--- a/Lab_3/Segway_files/Outputs/output6.xlsx
+++ b/Lab_3/Segway_files/Outputs/output6.xlsx
@@ -409,28 +409,28 @@
     </row>
     <row r="2" spans="2:10">
       <c r="B2">
-        <v>445.1397728816134</v>
+        <v>10122.73645084555</v>
       </c>
       <c r="C2">
-        <v>773.3428095784653</v>
+        <v>14618.02037900109</v>
       </c>
       <c r="D2">
-        <v>0.0002741670300232739</v>
+        <v>7.514864867435763e-06</v>
       </c>
       <c r="E2">
-        <v>-0.9912308432427941</v>
+        <v>-1.025449219673688</v>
       </c>
       <c r="F2">
-        <v>-0.01257736978811433</v>
+        <v>-0.01874076294164456</v>
       </c>
       <c r="G2">
-        <v>555.062</v>
+        <v>10014.681</v>
       </c>
       <c r="H2">
-        <v>799.89</v>
+        <v>14499.981</v>
       </c>
       <c r="I2">
-        <v>-0.00153</v>
+        <v>-0.00051</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -438,753 +438,753 @@
     </row>
     <row r="3" spans="2:10">
       <c r="B3">
-        <v>422.0114476980494</v>
+        <v>10474.60203038637</v>
       </c>
       <c r="C3">
-        <v>801.9786680007015</v>
+        <v>14886.81288584687</v>
       </c>
       <c r="D3">
-        <v>-0.141219418245668</v>
+        <v>-0.245497324304671</v>
       </c>
       <c r="E3">
-        <v>-1.029100628141728</v>
+        <v>-0.9811961798098938</v>
       </c>
       <c r="F3">
-        <v>0.01059904596582138</v>
+        <v>-0.01356775957097367</v>
       </c>
       <c r="G3">
-        <v>558.9682454279306</v>
+        <v>10053.8997448996</v>
       </c>
       <c r="H3">
-        <v>799.8840234398317</v>
+        <v>14499.96099843837</v>
       </c>
       <c r="I3">
-        <v>-0.01889111111111111</v>
+        <v>-0.03010905660377359</v>
       </c>
       <c r="J3">
-        <v>-0.1388888888888889</v>
+        <v>-0.2367924528301887</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4">
-        <v>415.8431708559007</v>
+        <v>9820.589310759698</v>
       </c>
       <c r="C4">
-        <v>782.4902643537473</v>
+        <v>14395.17161972114</v>
       </c>
       <c r="D4">
-        <v>-0.2703852253332018</v>
+        <v>-0.4750651668206267</v>
       </c>
       <c r="E4">
-        <v>-0.9989610759351889</v>
+        <v>-1.001771493573201</v>
       </c>
       <c r="F4">
-        <v>-0.03206524877196792</v>
+        <v>-0.07622826460755716</v>
       </c>
       <c r="G4">
-        <v>566.779351430017</v>
+        <v>10132.30169362023</v>
       </c>
       <c r="H4">
-        <v>799.7364454124371</v>
+        <v>14497.59967612695</v>
       </c>
       <c r="I4">
-        <v>-0.05361333333333333</v>
+        <v>-0.08930716981132075</v>
       </c>
       <c r="J4">
-        <v>-0.2777777777777778</v>
+        <v>-0.4735849056603774</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5">
-        <v>398.6871170182719</v>
+        <v>10310.77780797262</v>
       </c>
       <c r="C5">
-        <v>756.9733874555785</v>
+        <v>14506.23258944159</v>
       </c>
       <c r="D5">
-        <v>-0.418722230751381</v>
+        <v>-0.7165079364487416</v>
       </c>
       <c r="E5">
-        <v>-1.000587333947863</v>
+        <v>-0.9772255068707145</v>
       </c>
       <c r="F5">
-        <v>-0.1026664389862186</v>
+        <v>-0.2016141973212575</v>
       </c>
       <c r="G5">
-        <v>578.4812633378247</v>
+        <v>10249.48905576108</v>
       </c>
       <c r="H5">
-        <v>799.1084651066881</v>
+        <v>14487.10609149007</v>
       </c>
       <c r="I5">
-        <v>-0.1056966666666667</v>
+        <v>-0.1781043396226415</v>
       </c>
       <c r="J5">
-        <v>-0.4166666666666667</v>
+        <v>-0.710377358490566</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6">
-        <v>432.0558076319778</v>
+        <v>10278.53604666157</v>
       </c>
       <c r="C6">
-        <v>819.0520424565046</v>
+        <v>15174.8639438521</v>
       </c>
       <c r="D6">
-        <v>-0.5568322822668476</v>
+        <v>-0.9428736344388401</v>
       </c>
       <c r="E6">
-        <v>-0.9908614704985347</v>
+        <v>-0.9566648165833974</v>
       </c>
       <c r="F6">
-        <v>-0.1791948609701678</v>
+        <v>-0.2812609647359319</v>
       </c>
       <c r="G6">
-        <v>594.0190649902894</v>
+        <v>10403.88249784476</v>
       </c>
       <c r="H6">
-        <v>797.460028026098</v>
+        <v>14459.31345457748</v>
       </c>
       <c r="I6">
-        <v>-0.1751411111111111</v>
+        <v>-0.2965005660377358</v>
       </c>
       <c r="J6">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="7" spans="2:10">
       <c r="B7">
-        <v>410.3745226741995</v>
+        <v>10204.99592730751</v>
       </c>
       <c r="C7">
-        <v>829.070297978226</v>
+        <v>16095.93780549953</v>
       </c>
       <c r="D7">
-        <v>-0.6443398874735339</v>
+        <v>-1.103345400483375</v>
       </c>
       <c r="E7">
-        <v>-0.971798224798046</v>
+        <v>-0.9077917460438024</v>
       </c>
       <c r="F7">
-        <v>-0.286879796531702</v>
+        <v>-0.419606981211442</v>
       </c>
       <c r="G7">
-        <v>611.9693508880739</v>
+        <v>10578.91707883071</v>
       </c>
       <c r="H7">
-        <v>794.2836505651039</v>
+        <v>14405.83932427831</v>
       </c>
       <c r="I7">
-        <v>-0.2561598611111111</v>
+        <v>-0.4346298915094339</v>
       </c>
       <c r="J7">
-        <v>-0.6481499999999999</v>
+        <v>-1.105034603773585</v>
       </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8">
-        <v>363.2961995719587</v>
+        <v>11088.83877618994</v>
       </c>
       <c r="C8">
-        <v>815.5517550500241</v>
+        <v>17496.70893292827</v>
       </c>
       <c r="D8">
-        <v>-0.7424898592283333</v>
+        <v>-1.266228366338179</v>
       </c>
       <c r="E8">
-        <v>-0.9141597074306334</v>
+        <v>-0.81965771283191</v>
       </c>
       <c r="F8">
-        <v>-0.3373971132387087</v>
+        <v>-0.564120655538878</v>
       </c>
       <c r="G8">
-        <v>632.1229041987276</v>
+        <v>10768.6367677619</v>
       </c>
       <c r="H8">
-        <v>789.0051563896499</v>
+        <v>14317.76448208712</v>
       </c>
       <c r="I8">
-        <v>-0.3487522222222222</v>
+        <v>-0.5924911320754717</v>
       </c>
       <c r="J8">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="9" spans="2:10">
       <c r="B9">
-        <v>362.9228738958203</v>
+        <v>12262.63478145291</v>
       </c>
       <c r="C9">
-        <v>863.3575249400666</v>
+        <v>15967.47981518884</v>
       </c>
       <c r="D9">
-        <v>-0.7400404805391011</v>
+        <v>-1.26902156494207</v>
       </c>
       <c r="E9">
-        <v>-0.9100039971513452</v>
+        <v>-0.7248309683061741</v>
       </c>
       <c r="F9">
-        <v>-0.4561853008595366</v>
+        <v>-0.7119832349941826</v>
       </c>
       <c r="G9">
-        <v>651.7020773575334</v>
+        <v>10942.15150909809</v>
       </c>
       <c r="H9">
-        <v>781.8858734044636</v>
+        <v>14200.95963315445</v>
       </c>
       <c r="I9">
-        <v>-0.4413445833333334</v>
+        <v>-0.7503523726415094</v>
       </c>
       <c r="J9">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="10" spans="2:10">
       <c r="B10">
-        <v>422.233982946027</v>
+        <v>14570.98208034176</v>
       </c>
       <c r="C10">
-        <v>895.2980497186508</v>
+        <v>14090.88911568353</v>
       </c>
       <c r="D10">
-        <v>-0.7471652501395023</v>
+        <v>-1.261009193683309</v>
       </c>
       <c r="E10">
-        <v>-0.8665659148472414</v>
+        <v>-0.5951957395456592</v>
       </c>
       <c r="F10">
-        <v>-0.5088763737557847</v>
+        <v>-0.7934511084771774</v>
       </c>
       <c r="G10">
-        <v>670.539131243445</v>
+        <v>11095.14625791483</v>
       </c>
       <c r="H10">
-        <v>772.9867940866393</v>
+        <v>14058.32953454391</v>
       </c>
       <c r="I10">
-        <v>-0.5339369444444445</v>
+        <v>-0.9082136132075472</v>
       </c>
       <c r="J10">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="11" spans="2:10">
       <c r="B11">
-        <v>371.7956859232997</v>
+        <v>15702.95268314954</v>
       </c>
       <c r="C11">
-        <v>926.1436814061842</v>
+        <v>12896.08794022407</v>
       </c>
       <c r="D11">
-        <v>-0.746149205348444</v>
+        <v>-1.268610270632753</v>
       </c>
       <c r="E11">
-        <v>-0.8232961119469248</v>
+        <v>-0.4790699173590506</v>
       </c>
       <c r="F11">
-        <v>-0.5941715205828293</v>
+        <v>-0.8872475385501358</v>
       </c>
       <c r="G11">
-        <v>688.4726846359024</v>
+        <v>11223.81626996236</v>
       </c>
       <c r="H11">
-        <v>762.3841588233878</v>
+        <v>13893.42117758515</v>
       </c>
       <c r="I11">
-        <v>-0.6265293055555556</v>
+        <v>-1.066074853773585</v>
       </c>
       <c r="J11">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="12" spans="2:10">
       <c r="B12">
-        <v>375.947974369948</v>
+        <v>14410.3300652827</v>
       </c>
       <c r="C12">
-        <v>1018.745198066862</v>
+        <v>12131.25458214648</v>
       </c>
       <c r="D12">
-        <v>-0.7331950643734741</v>
+        <v>-1.252403405959748</v>
       </c>
       <c r="E12">
-        <v>-0.7780528932364628</v>
+        <v>-0.2973562242292141</v>
       </c>
       <c r="F12">
-        <v>-0.6537714402631526</v>
+        <v>-0.9118871971550955</v>
       </c>
       <c r="G12">
-        <v>705.3490968035586</v>
+        <v>11324.96171980717</v>
       </c>
       <c r="H12">
-        <v>750.1688027437211</v>
+        <v>13710.33557965118</v>
       </c>
       <c r="I12">
-        <v>-0.7191216666666668</v>
+        <v>-1.223936094339623</v>
       </c>
       <c r="J12">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="13" spans="2:10">
       <c r="B13">
-        <v>389.7049557075645</v>
+        <v>13575.86312680428</v>
       </c>
       <c r="C13">
-        <v>1009.86085145373</v>
+        <v>11553.35828049389</v>
       </c>
       <c r="D13">
-        <v>-0.7357547716092445</v>
+        <v>-1.264710317148678</v>
       </c>
       <c r="E13">
-        <v>-0.7129819148354031</v>
+        <v>-0.2068337001680871</v>
       </c>
       <c r="F13">
-        <v>-0.7359918638580955</v>
+        <v>-0.973522317140874</v>
       </c>
       <c r="G13">
-        <v>721.023783778518</v>
+        <v>11396.06727557242</v>
       </c>
       <c r="H13">
-        <v>736.4453775137466</v>
+        <v>13513.6257981596</v>
       </c>
       <c r="I13">
-        <v>-0.8117140277777779</v>
+        <v>-1.38179733490566</v>
       </c>
       <c r="J13">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="14" spans="2:10">
       <c r="B14">
-        <v>431.1446239777425</v>
+        <v>13670.86483242614</v>
       </c>
       <c r="C14">
-        <v>916.0647432929279</v>
+        <v>11216.29994283133</v>
       </c>
       <c r="D14">
-        <v>-0.7507183659579297</v>
+        <v>-1.260690053702854</v>
       </c>
       <c r="E14">
-        <v>-0.6072093357590572</v>
+        <v>-0.02155174923615923</v>
       </c>
       <c r="F14">
-        <v>-0.7750190826877215</v>
+        <v>-0.980221421213718</v>
       </c>
       <c r="G14">
-        <v>735.3624570392722</v>
+        <v>11435.36465137565</v>
       </c>
       <c r="H14">
-        <v>721.3314547626208</v>
+        <v>13308.1837030327</v>
       </c>
       <c r="I14">
-        <v>-0.904306388888889</v>
+        <v>-1.539658575471698</v>
       </c>
       <c r="J14">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="15" spans="2:10">
       <c r="B15">
-        <v>455.6263021064176</v>
+        <v>13268.07439771922</v>
       </c>
       <c r="C15">
-        <v>905.6312645732816</v>
+        <v>11510.9970230775</v>
       </c>
       <c r="D15">
-        <v>-0.7459662977433418</v>
+        <v>-1.259458276180713</v>
       </c>
       <c r="E15">
-        <v>-0.5113297716159055</v>
+        <v>0.1203728897784705</v>
       </c>
       <c r="F15">
-        <v>-0.8449687379766333</v>
+        <v>-0.9869928026619775</v>
       </c>
       <c r="G15">
-        <v>748.2422739902619</v>
+        <v>11441.8765818808</v>
       </c>
       <c r="H15">
-        <v>704.9565188203137</v>
+        <v>13099.11832341129</v>
       </c>
       <c r="I15">
-        <v>-0.9968987500000002</v>
+        <v>4.58566549114185</v>
       </c>
       <c r="J15">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="16" spans="2:10">
       <c r="B16">
-        <v>511.6661622073348</v>
+        <v>13120.69069642687</v>
       </c>
       <c r="C16">
-        <v>858.9842704929209</v>
+        <v>12095.79173390135</v>
       </c>
       <c r="D16">
-        <v>-0.7427225129340136</v>
+        <v>-1.261737918460043</v>
       </c>
       <c r="E16">
-        <v>-0.4884995104530375</v>
+        <v>0.2841291700464134</v>
       </c>
       <c r="F16">
-        <v>-0.8693711724929033</v>
+        <v>-0.9655835089270002</v>
       </c>
       <c r="G16">
-        <v>759.5528903816523</v>
+        <v>11415.44112538504</v>
       </c>
       <c r="H16">
-        <v>687.4608573966215</v>
+        <v>12891.62879395254</v>
       </c>
       <c r="I16">
-        <v>-1.089491111111111</v>
+        <v>4.427804250575813</v>
       </c>
       <c r="J16">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="17" spans="2:10">
       <c r="B17">
-        <v>594.153457759842</v>
+        <v>14038.45609279622</v>
       </c>
       <c r="C17">
-        <v>861.9359024893786</v>
+        <v>12749.01357971308</v>
       </c>
       <c r="D17">
-        <v>-0.7439782594898302</v>
+        <v>-1.259710149510759</v>
       </c>
       <c r="E17">
-        <v>-0.3849481631766954</v>
+        <v>0.4211421230196596</v>
       </c>
       <c r="F17">
-        <v>-0.9156817128980076</v>
+        <v>-0.933598573675649</v>
       </c>
       <c r="G17">
-        <v>769.1974056530065</v>
+        <v>11356.71569106007</v>
       </c>
       <c r="H17">
-        <v>668.9943597052269</v>
+        <v>12690.8750603422</v>
       </c>
       <c r="I17">
-        <v>-1.182083472222222</v>
+        <v>4.269943010009775</v>
       </c>
       <c r="J17">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="18" spans="2:10">
       <c r="B18">
-        <v>648.6926228883925</v>
+        <v>15374.36256201402</v>
       </c>
       <c r="C18">
-        <v>808.0216644301098</v>
+        <v>13241.13876789663</v>
       </c>
       <c r="D18">
-        <v>-0.7446805088123689</v>
+        <v>-1.261443456104815</v>
       </c>
       <c r="E18">
-        <v>-0.2572813443678474</v>
+        <v>0.5521051439532855</v>
       </c>
       <c r="F18">
-        <v>-0.9774808129029108</v>
+        <v>-0.8464870454756865</v>
       </c>
       <c r="G18">
-        <v>777.0931931018883</v>
+        <v>11267.16069019642</v>
       </c>
       <c r="H18">
-        <v>649.7152323295456</v>
+        <v>12501.84955937616</v>
       </c>
       <c r="I18">
-        <v>-1.274675833333333</v>
+        <v>4.112081769443737</v>
       </c>
       <c r="J18">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="19" spans="2:10">
       <c r="B19">
-        <v>654.4909904397326</v>
+        <v>15974.49008028875</v>
       </c>
       <c r="C19">
-        <v>795.5958793921043</v>
+        <v>10924.51022059095</v>
       </c>
       <c r="D19">
-        <v>-0.7496506524850561</v>
+        <v>-1.257908019938228</v>
       </c>
       <c r="E19">
-        <v>-0.17416215294101</v>
+        <v>0.6929383303643224</v>
       </c>
       <c r="F19">
-        <v>-0.9598388076714169</v>
+        <v>-0.7383619836412718</v>
       </c>
       <c r="G19">
-        <v>783.1726077651577</v>
+        <v>11149.00321801931</v>
       </c>
       <c r="H19">
-        <v>629.7886438318201</v>
+        <v>12329.2530647308</v>
       </c>
       <c r="I19">
-        <v>-1.367268194444444</v>
+        <v>3.954220528877699</v>
       </c>
       <c r="J19">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="20" spans="2:10">
       <c r="B20">
-        <v>596.0278993683567</v>
+        <v>13565.28498037067</v>
       </c>
       <c r="C20">
-        <v>784.6819968071927</v>
+        <v>9563.191978939782</v>
       </c>
       <c r="D20">
-        <v>-0.7433310922933123</v>
+        <v>-1.263808614159255</v>
       </c>
       <c r="E20">
-        <v>-0.09399308856298114</v>
+        <v>0.7944539738899914</v>
       </c>
       <c r="F20">
-        <v>-0.9847947311964612</v>
+        <v>-0.5878747580134748</v>
       </c>
       <c r="G20">
-        <v>787.3835659483797</v>
+        <v>11005.18166925346</v>
       </c>
       <c r="H20">
-        <v>609.385309717396</v>
+        <v>12177.37778594672</v>
       </c>
       <c r="I20">
-        <v>-1.459860555555555</v>
+        <v>3.796359288311661</v>
       </c>
       <c r="J20">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="21" spans="2:10">
       <c r="B21">
-        <v>586.9532741913748</v>
+        <v>12294.7488774389</v>
       </c>
       <c r="C21">
-        <v>840.231063939126</v>
+        <v>8817.833036471202</v>
       </c>
       <c r="D21">
-        <v>-0.7551517491838949</v>
+        <v>-1.26743868870281</v>
       </c>
       <c r="E21">
-        <v>0.007165798514413128</v>
+        <v>0.8908066186393839</v>
       </c>
       <c r="F21">
-        <v>-1.017954120730613</v>
+        <v>-0.4622684746804447</v>
       </c>
       <c r="G21">
-        <v>789.689991438392</v>
+        <v>10839.27266476261</v>
       </c>
       <c r="H21">
-        <v>588.6800298771068</v>
+        <v>12050.0006277746</v>
       </c>
       <c r="I21">
-        <v>-1.552452916666666</v>
+        <v>3.638498047745624</v>
       </c>
       <c r="J21">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="22" spans="2:10">
       <c r="B22">
-        <v>584.6777189288169</v>
+        <v>11235.68949632213</v>
       </c>
       <c r="C22">
-        <v>745.2734329233815</v>
+        <v>8695.485247933551</v>
       </c>
       <c r="D22">
-        <v>-0.7392036368566891</v>
+        <v>-1.269221250310382</v>
       </c>
       <c r="E22">
-        <v>0.07329094667711077</v>
+        <v>0.9571657026080648</v>
       </c>
       <c r="F22">
-        <v>-0.960543736989373</v>
+        <v>-0.3254589039241341</v>
       </c>
       <c r="G22">
-        <v>790.0721245762287</v>
+        <v>10655.4021064859</v>
       </c>
       <c r="H22">
-        <v>567.8501910378207</v>
+        <v>11950.28926435918</v>
       </c>
       <c r="I22">
-        <v>4.638140029401809</v>
+        <v>3.480636807179586</v>
       </c>
       <c r="J22">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="23" spans="2:10">
       <c r="B23">
-        <v>558.4068202080707</v>
+        <v>10831.53982910192</v>
       </c>
       <c r="C23">
-        <v>824.866937906459</v>
+        <v>8547.717449347498</v>
       </c>
       <c r="D23">
-        <v>-0.6452073195286109</v>
+        <v>-1.102285113926164</v>
       </c>
       <c r="E23">
-        <v>0.164729899080174</v>
+        <v>0.9598477575696226</v>
       </c>
       <c r="F23">
-        <v>-0.9663926258991229</v>
+        <v>-0.2001313460092355</v>
       </c>
       <c r="G23">
-        <v>788.7198721205616</v>
+        <v>10482.80019926487</v>
       </c>
       <c r="H23">
-        <v>549.6712595267813</v>
+        <v>11889.41916680839</v>
       </c>
       <c r="I23">
-        <v>4.557121279401809</v>
+        <v>3.342507481707888</v>
       </c>
       <c r="J23">
-        <v>-0.6481499999999999</v>
+        <v>-1.105034603773585</v>
       </c>
     </row>
     <row r="24" spans="2:10">
       <c r="B24">
-        <v>531.2403828869246</v>
+        <v>10247.85751689916</v>
       </c>
       <c r="C24">
-        <v>788.8311592864517</v>
+        <v>7967.111766555196</v>
       </c>
       <c r="D24">
-        <v>-0.5578561523187232</v>
+        <v>-0.9516514294918472</v>
       </c>
       <c r="E24">
-        <v>0.2445444502059676</v>
+        <v>0.9940108597472084</v>
       </c>
       <c r="F24">
-        <v>-0.9689378883618116</v>
+        <v>-0.09255053822042221</v>
       </c>
       <c r="G24">
-        <v>786.3035504734657</v>
+        <v>10329.08083096167</v>
       </c>
       <c r="H24">
-        <v>534.2342256569676</v>
+        <v>11858.11227565858</v>
       </c>
       <c r="I24">
-        <v>4.487676834957364</v>
+        <v>3.224111255292793</v>
       </c>
       <c r="J24">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="25" spans="2:10">
       <c r="B25">
-        <v>572.630957310715</v>
+        <v>10145.56115118531</v>
       </c>
       <c r="C25">
-        <v>808.528768989166</v>
+        <v>8215.200324585112</v>
       </c>
       <c r="D25">
-        <v>-0.4135750700433531</v>
+        <v>-0.7175958511109917</v>
       </c>
       <c r="E25">
-        <v>0.3040967204463044</v>
+        <v>0.9760478968106151</v>
       </c>
       <c r="F25">
-        <v>-0.9771001399730367</v>
+        <v>0.01076654928459255</v>
       </c>
       <c r="G25">
-        <v>783.6923111693505</v>
+        <v>10211.82493321329</v>
       </c>
       <c r="H25">
-        <v>522.810105084287</v>
+        <v>11848.41446109641</v>
       </c>
       <c r="I25">
-        <v>4.435593501624031</v>
+        <v>3.135314085481473</v>
       </c>
       <c r="J25">
-        <v>-0.4166666666666667</v>
+        <v>-0.710377358490566</v>
       </c>
     </row>
     <row r="26" spans="2:10">
       <c r="B26">
-        <v>514.027425441697</v>
+        <v>10249.76574232431</v>
       </c>
       <c r="C26">
-        <v>826.6803227614416</v>
+        <v>7810.669750641863</v>
       </c>
       <c r="D26">
-        <v>-0.2815793680197622</v>
+        <v>-0.4800415529466717</v>
       </c>
       <c r="E26">
-        <v>0.287316746423988</v>
+        <v>0.9700354981117336</v>
       </c>
       <c r="F26">
-        <v>-0.9777440245187951</v>
+        <v>0.07531795776731587</v>
       </c>
       <c r="G26">
-        <v>781.5573540417728</v>
+        <v>10133.38897922771</v>
       </c>
       <c r="H26">
-        <v>515.2949793825169</v>
+        <v>11848.90693304682</v>
       </c>
       <c r="I26">
-        <v>4.400871279401809</v>
+        <v>3.076115972273926</v>
       </c>
       <c r="J26">
-        <v>-0.2777777777777778</v>
+        <v>-0.4735849056603774</v>
       </c>
     </row>
     <row r="27" spans="2:10">
       <c r="B27">
-        <v>541.9548610189236</v>
+        <v>10337.37326577699</v>
       </c>
       <c r="C27">
-        <v>793.8682738765553</v>
+        <v>8358.79436303058</v>
       </c>
       <c r="D27">
-        <v>-0.138921804489239</v>
+        <v>-0.2358437470430021</v>
       </c>
       <c r="E27">
-        <v>0.3321226903745583</v>
+        <v>0.9905002215367016</v>
       </c>
       <c r="F27">
-        <v>-0.8871395081638775</v>
+        <v>0.09531716701743941</v>
       </c>
       <c r="G27">
-        <v>780.3600741896432</v>
+        <v>10094.25426842696</v>
       </c>
       <c r="H27">
-        <v>511.5767392049349</v>
+        <v>11851.4730121774</v>
       </c>
       <c r="I27">
-        <v>4.383510168290698</v>
+        <v>3.046516915670152</v>
       </c>
       <c r="J27">
-        <v>-0.1388888888888889</v>
+        <v>-0.2367924528301887</v>
       </c>
     </row>
     <row r="28" spans="2:10">
       <c r="B28">
-        <v>531.2996796867673</v>
+        <v>10239.1132249546</v>
       </c>
       <c r="C28">
-        <v>872.9851877788047</v>
+        <v>8165.788142883805</v>
       </c>
       <c r="D28">
-        <v>0.005046754258205927</v>
+        <v>0.004591902646493354</v>
       </c>
       <c r="E28">
-        <v>0.278071717983119</v>
+        <v>0.9938208203232066</v>
       </c>
       <c r="F28">
-        <v>-0.9438845674016632</v>
+        <v>0.09712276913901681</v>
       </c>
       <c r="G28">
-        <v>780.3600741896432</v>
+        <v>10094.25426842696</v>
       </c>
       <c r="H28">
-        <v>511.5767392049349</v>
+        <v>11851.4730121774</v>
       </c>
       <c r="I28">
-        <v>4.383510168290698</v>
+        <v>3.046516915670152</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -1192,1101 +1192,1101 @@
     </row>
     <row r="29" spans="2:10">
       <c r="B29">
-        <v>538.9808078807699</v>
+        <v>10155.2672931765</v>
       </c>
       <c r="C29">
-        <v>829.4443536766661</v>
+        <v>8531.38346472398</v>
       </c>
       <c r="D29">
-        <v>-0.1292669432607574</v>
+        <v>-0.2377152116799257</v>
       </c>
       <c r="E29">
-        <v>0.3396877752507278</v>
+        <v>0.9597823676570871</v>
       </c>
       <c r="F29">
-        <v>-0.9346257277344158</v>
+        <v>0.1300002108182056</v>
       </c>
       <c r="G29">
-        <v>779.0984252298314</v>
+        <v>10055.21264184735</v>
       </c>
       <c r="H29">
-        <v>507.8798444316549</v>
+        <v>11855.19614870203</v>
       </c>
       <c r="I29">
-        <v>4.366149057179587</v>
+        <v>3.016917859066379</v>
       </c>
       <c r="J29">
-        <v>-0.1388888888888889</v>
+        <v>-0.2367924528301887</v>
       </c>
     </row>
     <row r="30" spans="2:10">
       <c r="B30">
-        <v>593.9861832049722</v>
+        <v>10242.22009751531</v>
       </c>
       <c r="C30">
-        <v>836.6609945784363</v>
+        <v>8238.93992256481</v>
       </c>
       <c r="D30">
-        <v>-0.2720193538456342</v>
+        <v>-0.4802184171084351</v>
       </c>
       <c r="E30">
-        <v>0.3693001669011503</v>
+        <v>1.003844052463751</v>
       </c>
       <c r="F30">
-        <v>-0.9544522739409654</v>
+        <v>0.1909902323540821</v>
       </c>
       <c r="G30">
-        <v>776.4471496183714</v>
+        <v>9977.383961198395</v>
       </c>
       <c r="H30">
-        <v>500.530974186367</v>
+        <v>11864.95001330498</v>
       </c>
       <c r="I30">
-        <v>4.331426834957365</v>
+        <v>2.957719745858832</v>
       </c>
       <c r="J30">
-        <v>-0.2777777777777778</v>
+        <v>-0.4735849056603774</v>
       </c>
     </row>
     <row r="31" spans="2:10">
       <c r="B31">
-        <v>546.2405952168704</v>
+        <v>10717.81105326568</v>
       </c>
       <c r="C31">
-        <v>863.1833350797865</v>
+        <v>8671.133369425108</v>
       </c>
       <c r="D31">
-        <v>-0.4155820125045847</v>
+        <v>-0.7049408235996878</v>
       </c>
       <c r="E31">
-        <v>0.4304070019037662</v>
+        <v>0.9695181843192013</v>
       </c>
       <c r="F31">
-        <v>-0.9241828456751052</v>
+        <v>0.2870415997478121</v>
       </c>
       <c r="G31">
-        <v>772.089956555604</v>
+        <v>9861.711048373081</v>
       </c>
       <c r="H31">
-        <v>489.6523727056493</v>
+        <v>11886.46211228601</v>
       </c>
       <c r="I31">
-        <v>4.279343501624032</v>
+        <v>2.868922576047511</v>
       </c>
       <c r="J31">
-        <v>-0.4166666666666667</v>
+        <v>-0.710377358490566</v>
       </c>
     </row>
     <row r="32" spans="2:10">
       <c r="B32">
-        <v>563.307709235678</v>
+        <v>10273.82645677844</v>
       </c>
       <c r="C32">
-        <v>839.1291025509896</v>
+        <v>9065.212205341442</v>
       </c>
       <c r="D32">
-        <v>-0.5518522916986861</v>
+        <v>-0.955650401891376</v>
       </c>
       <c r="E32">
-        <v>0.4719719423356286</v>
+        <v>0.8935803742047183</v>
       </c>
       <c r="F32">
-        <v>-0.8708326291412032</v>
+        <v>0.400501085846754</v>
       </c>
       <c r="G32">
-        <v>765.5331268554434</v>
+        <v>9710.631753192632</v>
       </c>
       <c r="H32">
-        <v>475.4696857499596</v>
+        <v>11928.70914996653</v>
       </c>
       <c r="I32">
-        <v>4.209899057179587</v>
+        <v>2.750526349632417</v>
       </c>
       <c r="J32">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="33" spans="2:10">
       <c r="B33">
-        <v>551.3310985975096</v>
+        <v>10929.16693137324</v>
       </c>
       <c r="C33">
-        <v>932.097700187256</v>
+        <v>9175.105359891848</v>
       </c>
       <c r="D33">
-        <v>-0.6431736265779684</v>
+        <v>-1.104010115744307</v>
       </c>
       <c r="E33">
-        <v>0.5570562937372465</v>
+        <v>0.8478389706538829</v>
       </c>
       <c r="F33">
-        <v>-0.8223498384177108</v>
+        <v>0.5018246655759956</v>
       </c>
       <c r="G33">
-        <v>756.7537981647412</v>
+        <v>9541.428515197309</v>
       </c>
       <c r="H33">
-        <v>459.4939064159951</v>
+        <v>11998.47197247307</v>
       </c>
       <c r="I33">
-        <v>4.128880307179587</v>
+        <v>2.612397024160718</v>
       </c>
       <c r="J33">
-        <v>-0.6481499999999999</v>
+        <v>-1.105034603773585</v>
       </c>
     </row>
     <row r="34" spans="2:10">
       <c r="B34">
-        <v>560.4961585146065</v>
+        <v>12230.21836037213</v>
       </c>
       <c r="C34">
-        <v>877.8091788528349</v>
+        <v>10301.74885671875</v>
       </c>
       <c r="D34">
-        <v>-0.7333967031978381</v>
+        <v>-1.265787312301369</v>
       </c>
       <c r="E34">
-        <v>0.6294691265851278</v>
+        <v>0.8296705836049414</v>
       </c>
       <c r="F34">
-        <v>-0.7812682542272643</v>
+        <v>0.6362018417233505</v>
       </c>
       <c r="G34">
-        <v>745.2755542681797</v>
+        <v>9360.872949669592</v>
       </c>
       <c r="H34">
-        <v>442.1077588019688</v>
+        <v>12104.06754980525</v>
       </c>
       <c r="I34">
-        <v>4.036287946068476</v>
+        <v>2.454535783594681</v>
       </c>
       <c r="J34">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="35" spans="2:10">
       <c r="B35">
-        <v>595.7147303790072</v>
+        <v>10331.07305233661</v>
       </c>
       <c r="C35">
-        <v>807.8458827043679</v>
+        <v>11736.75017328117</v>
       </c>
       <c r="D35">
-        <v>-0.837010454533888</v>
+        <v>-1.425943111298832</v>
       </c>
       <c r="E35">
-        <v>0.7172999467541727</v>
+        <v>0.6525461892690669</v>
       </c>
       <c r="F35">
-        <v>-0.7395776728719352</v>
+        <v>0.7566842695226627</v>
       </c>
       <c r="G35">
-        <v>730.6093857621489</v>
+        <v>9178.949071223187</v>
       </c>
       <c r="H35">
-        <v>423.8260765051256</v>
+        <v>12253.31792704855</v>
       </c>
       <c r="I35">
-        <v>3.932121279401809</v>
+        <v>2.276941443972039</v>
       </c>
       <c r="J35">
-        <v>-0.8333333333333334</v>
+        <v>-1.420754716981132</v>
       </c>
     </row>
     <row r="36" spans="2:10">
       <c r="B36">
-        <v>638.681413486329</v>
+        <v>8814.92453999007</v>
       </c>
       <c r="C36">
-        <v>748.0802541080234</v>
+        <v>12696.52486584471</v>
       </c>
       <c r="D36">
-        <v>-0.9239497061305083</v>
+        <v>-1.582658452847439</v>
       </c>
       <c r="E36">
-        <v>0.7821039508067752</v>
+        <v>0.4954710657664837</v>
       </c>
       <c r="F36">
-        <v>-0.6003467465527557</v>
+        <v>0.8586268875203517</v>
       </c>
       <c r="G36">
-        <v>712.2898694896677</v>
+        <v>9009.287378387424</v>
       </c>
       <c r="H36">
-        <v>405.3176140139985</v>
+        <v>12452.25338232284</v>
       </c>
       <c r="I36">
-        <v>3.816380307179587</v>
+        <v>2.079614005292794</v>
       </c>
       <c r="J36">
-        <v>-0.9259277777777777</v>
+        <v>-1.578619509433962</v>
       </c>
     </row>
     <row r="37" spans="2:10">
       <c r="B37">
-        <v>736.7421755903796</v>
+        <v>7764.322989797263</v>
       </c>
       <c r="C37">
-        <v>697.8966493643568</v>
+        <v>11377.7907671827</v>
       </c>
       <c r="D37">
-        <v>-1.01590376902414</v>
+        <v>-1.736597209619696</v>
       </c>
       <c r="E37">
-        <v>0.8744797843658588</v>
+        <v>0.325306803712015</v>
       </c>
       <c r="F37">
-        <v>-0.5278860045216625</v>
+        <v>1.003033109770752</v>
       </c>
       <c r="G37">
-        <v>689.9220595055264</v>
+        <v>8869.182383785965</v>
       </c>
       <c r="H37">
-        <v>387.4216524398678</v>
+        <v>12703.42425509468</v>
       </c>
       <c r="I37">
-        <v>3.689065723846254</v>
+        <v>1.862554651519209</v>
       </c>
       <c r="J37">
-        <v>-1.018516666666667</v>
+        <v>-1.736474830188679</v>
       </c>
     </row>
     <row r="38" spans="2:10">
       <c r="B38">
-        <v>723.1268481549474</v>
+        <v>6889.006168477302</v>
       </c>
       <c r="C38">
-        <v>677.4826377086092</v>
+        <v>11453.23261358465</v>
       </c>
       <c r="D38">
-        <v>-1.119074372932458</v>
+        <v>-1.892735640450323</v>
       </c>
       <c r="E38">
-        <v>0.92693347600257</v>
+        <v>0.02811551999802407</v>
       </c>
       <c r="F38">
-        <v>-0.379573513483483</v>
+        <v>0.9986001995171829</v>
       </c>
       <c r="G38">
-        <v>663.2394784831279</v>
+        <v>8778.936373523691</v>
       </c>
       <c r="H38">
-        <v>371.1550495375055</v>
+        <v>13003.9150538419</v>
       </c>
       <c r="I38">
-        <v>3.550176834957365</v>
+        <v>1.62576219868902</v>
       </c>
       <c r="J38">
-        <v>-1.111111111111111</v>
+        <v>-1.894339622641509</v>
       </c>
     </row>
     <row r="39" spans="2:10">
       <c r="B39">
-        <v>632.2633208715642</v>
+        <v>6968.741574067654</v>
       </c>
       <c r="C39">
-        <v>660.0732396284367</v>
+        <v>11587.31648350987</v>
       </c>
       <c r="D39">
-        <v>-1.195466365055133</v>
+        <v>-2.052835741406307</v>
       </c>
       <c r="E39">
-        <v>0.9561887272421955</v>
+        <v>-0.1826592162921919</v>
       </c>
       <c r="F39">
-        <v>-0.2625760330591457</v>
+        <v>0.966647218269003</v>
       </c>
       <c r="G39">
-        <v>632.1720520913113</v>
+        <v>8760.263114510044</v>
       </c>
       <c r="H39">
-        <v>357.7044394105084</v>
+        <v>13343.2974573638</v>
       </c>
       <c r="I39">
-        <v>3.399713640512921</v>
+        <v>1.369236646802227</v>
       </c>
       <c r="J39">
-        <v>-1.203705555555555</v>
+        <v>-2.052204415094339</v>
       </c>
     </row>
     <row r="40" spans="2:10">
       <c r="B40">
-        <v>611.5754539892264</v>
+        <v>7225.986910460858</v>
       </c>
       <c r="C40">
-        <v>686.1760754257431</v>
+        <v>12489.76323819068</v>
       </c>
       <c r="D40">
-        <v>-1.300091269048242</v>
+        <v>-2.211839662152471</v>
       </c>
       <c r="E40">
-        <v>0.9887749174550778</v>
+        <v>-0.4910370741340574</v>
       </c>
       <c r="F40">
-        <v>-0.06936631535346685</v>
+        <v>0.8696152453796018</v>
       </c>
       <c r="G40">
-        <v>596.9215247962738</v>
+        <v>8833.543827445923</v>
       </c>
       <c r="H40">
-        <v>348.3979280117627</v>
+        <v>13701.92890524791</v>
       </c>
       <c r="I40">
-        <v>3.237676834957365</v>
+        <v>1.092979179821095</v>
       </c>
       <c r="J40">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="41" spans="2:10">
       <c r="B41">
-        <v>603.02769760857</v>
+        <v>8575.257359206813</v>
       </c>
       <c r="C41">
-        <v>640.672183581073</v>
+        <v>14905.70555113074</v>
       </c>
       <c r="D41">
-        <v>-1.299578060603987</v>
+        <v>-2.2061767387703</v>
       </c>
       <c r="E41">
-        <v>1.010899763362409</v>
+        <v>-0.7014313520318465</v>
       </c>
       <c r="F41">
-        <v>0.04195386642239443</v>
+        <v>0.7248504443124425</v>
       </c>
       <c r="G41">
-        <v>560.6313464209726</v>
+        <v>9001.865170055835</v>
       </c>
       <c r="H41">
-        <v>344.9002455673461</v>
+        <v>14026.97429272761</v>
       </c>
       <c r="I41">
-        <v>3.075640029401809</v>
+        <v>0.8167217128399634</v>
       </c>
       <c r="J41">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="42" spans="2:10">
       <c r="B42">
-        <v>514.155979562734</v>
+        <v>10991.28183760193</v>
       </c>
       <c r="C42">
-        <v>649.8569655560792</v>
+        <v>16804.37190763017</v>
       </c>
       <c r="D42">
-        <v>-1.291080351994789</v>
+        <v>-2.212702649545986</v>
       </c>
       <c r="E42">
-        <v>0.964826425895198</v>
+        <v>-0.8089965709577756</v>
       </c>
       <c r="F42">
-        <v>0.2002843566473332</v>
+        <v>0.5495577572471987</v>
       </c>
       <c r="G42">
-        <v>524.2522662488582</v>
+        <v>9252.462653398827</v>
       </c>
       <c r="H42">
-        <v>347.3030262115242</v>
+        <v>14293.78411196596</v>
       </c>
       <c r="I42">
-        <v>2.913603223846254</v>
+        <v>0.5404642458588313</v>
       </c>
       <c r="J42">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="43" spans="2:10">
       <c r="B43">
-        <v>516.3377888226856</v>
+        <v>10897.73689641349</v>
       </c>
       <c r="C43">
-        <v>721.6322734254123</v>
+        <v>14698.59122942873</v>
       </c>
       <c r="D43">
-        <v>-1.292769891768432</v>
+        <v>-2.213303425252759</v>
       </c>
       <c r="E43">
-        <v>0.9010402700444319</v>
+        <v>-0.958609389692097</v>
       </c>
       <c r="F43">
-        <v>0.3949294957975384</v>
+        <v>0.269174238922001</v>
       </c>
       <c r="G43">
-        <v>488.7373626596658</v>
+        <v>9566.332455647169</v>
       </c>
       <c r="H43">
-        <v>355.5433206263819</v>
+        <v>14482.12509406073</v>
       </c>
       <c r="I43">
-        <v>2.751566418290698</v>
+        <v>0.2642067788776993</v>
       </c>
       <c r="J43">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="44" spans="2:10">
       <c r="B44">
-        <v>525.3579666144035</v>
+        <v>10078.48499723047</v>
       </c>
       <c r="C44">
-        <v>736.1587396404409</v>
+        <v>14798.0192781162</v>
       </c>
       <c r="D44">
-        <v>-1.285253755778534</v>
+        <v>-2.212349599051096</v>
       </c>
       <c r="E44">
-        <v>0.8616140289072158</v>
+        <v>-0.9916919104255634</v>
       </c>
       <c r="F44">
-        <v>0.4927677452863864</v>
+        <v>-0.01506433341067127</v>
       </c>
       <c r="G44">
-        <v>455.0170738780316</v>
+        <v>9919.672558841776</v>
       </c>
       <c r="H44">
-        <v>369.405245221342</v>
+        <v>14577.7145797496</v>
       </c>
       <c r="I44">
-        <v>2.589529612735142</v>
+        <v>-0.01205068810343279</v>
       </c>
       <c r="J44">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="45" spans="2:10">
       <c r="B45">
-        <v>572.4611485316607</v>
+        <v>10221.31380556825</v>
       </c>
       <c r="C45">
-        <v>811.8301932820322</v>
+        <v>15381.83946511211</v>
       </c>
       <c r="D45">
-        <v>-1.295332652033785</v>
+        <v>-2.215962427329248</v>
       </c>
       <c r="E45">
-        <v>0.7702492922274512</v>
+        <v>-0.9558639491857065</v>
       </c>
       <c r="F45">
-        <v>0.6487616609862069</v>
+        <v>-0.2788247686663639</v>
       </c>
       <c r="G45">
-        <v>423.9748218608647</v>
+        <v>10285.68775228809</v>
       </c>
       <c r="H45">
-        <v>388.525637965631</v>
+        <v>14573.30363129222</v>
       </c>
       <c r="I45">
-        <v>2.427492807179587</v>
+        <v>-0.2883081550845649</v>
       </c>
       <c r="J45">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="46" spans="2:10">
       <c r="B46">
-        <v>627.7936888434735</v>
+        <v>11068.0380645593</v>
       </c>
       <c r="C46">
-        <v>797.313794158319</v>
+        <v>17167.05241942263</v>
       </c>
       <c r="D46">
-        <v>-1.304066973016596</v>
+        <v>-2.210637508465817</v>
       </c>
       <c r="E46">
-        <v>0.6475180992564373</v>
+        <v>-0.8463535525212105</v>
       </c>
       <c r="F46">
-        <v>0.7677321614815739</v>
+        <v>-0.5261766852907298</v>
       </c>
       <c r="G46">
-        <v>396.4238679417633</v>
+        <v>10636.6216218765</v>
       </c>
       <c r="H46">
-        <v>412.4035726992028</v>
+        <v>14469.22674877001</v>
       </c>
       <c r="I46">
-        <v>2.265456001624031</v>
+        <v>-0.5645656220656969</v>
       </c>
       <c r="J46">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="47" spans="2:10">
       <c r="B47">
-        <v>654.8870408095187</v>
+        <v>13821.71331184032</v>
       </c>
       <c r="C47">
-        <v>746.2568111206242</v>
+        <v>14641.08261788236</v>
       </c>
       <c r="D47">
-        <v>-1.296630367112391</v>
+        <v>-2.204923374614413</v>
       </c>
       <c r="E47">
-        <v>0.4957823617217134</v>
+        <v>-0.6383677962436271</v>
       </c>
       <c r="F47">
-        <v>0.8751611533094923</v>
+        <v>-0.7499982043086967</v>
       </c>
       <c r="G47">
-        <v>373.0860065805418</v>
+        <v>10945.86143134961</v>
       </c>
       <c r="H47">
-        <v>440.4134826611711</v>
+        <v>14273.37650359051</v>
       </c>
       <c r="I47">
-        <v>2.103419196068475</v>
+        <v>-0.840823089046829</v>
       </c>
       <c r="J47">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="48" spans="2:10">
       <c r="B48">
-        <v>601.5870462129213</v>
+        <v>15633.91145573433</v>
       </c>
       <c r="C48">
-        <v>696.5675799693684</v>
+        <v>12646.62249563362</v>
       </c>
       <c r="D48">
-        <v>-1.298261777679933</v>
+        <v>-2.205142589641644</v>
       </c>
       <c r="E48">
-        <v>0.3590539273821008</v>
+        <v>-0.4448001506227438</v>
       </c>
       <c r="F48">
-        <v>0.9303857924334412</v>
+        <v>-0.9296091606776915</v>
       </c>
       <c r="G48">
-        <v>354.5726554102851</v>
+        <v>11189.95627384727</v>
       </c>
       <c r="H48">
-        <v>471.8215494186128</v>
+        <v>14000.60501284068</v>
       </c>
       <c r="I48">
-        <v>1.94138239051292</v>
+        <v>-1.117080556027961</v>
       </c>
       <c r="J48">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="49" spans="2:10">
       <c r="B49">
-        <v>480.5304966861555</v>
+        <v>13692.15690176419</v>
       </c>
       <c r="C49">
-        <v>714.8956337627764</v>
+        <v>11670.34435967153</v>
       </c>
       <c r="D49">
-        <v>-1.295725457163026</v>
+        <v>-2.210753970435704</v>
       </c>
       <c r="E49">
-        <v>0.201512260299623</v>
+        <v>-0.1673351966439055</v>
       </c>
       <c r="F49">
-        <v>1.004708738067242</v>
+        <v>-1.000915139546392</v>
       </c>
       <c r="G49">
-        <v>341.368836994877</v>
+        <v>11350.39544912614</v>
       </c>
       <c r="H49">
-        <v>505.80492782992</v>
+        <v>13671.59764311217</v>
       </c>
       <c r="I49">
-        <v>1.779345584957364</v>
+        <v>-1.393338023009093</v>
       </c>
       <c r="J49">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="50" spans="2:10">
       <c r="B50">
-        <v>453.7523021907596</v>
+        <v>13158.52942953082</v>
       </c>
       <c r="C50">
-        <v>614.4285466325905</v>
+        <v>11644.01735730897</v>
       </c>
       <c r="D50">
-        <v>-1.298433286717303</v>
+        <v>-2.215052212321093</v>
       </c>
       <c r="E50">
-        <v>0.01718538028216302</v>
+        <v>0.08393349073957686</v>
       </c>
       <c r="F50">
-        <v>1.00440628504382</v>
+        <v>-0.9887236225336533</v>
       </c>
       <c r="G50">
-        <v>333.8204719513902</v>
+        <v>11415.01220490878</v>
       </c>
       <c r="H50">
-        <v>541.4733033769425</v>
+        <v>13311.3043553979</v>
       </c>
       <c r="I50">
-        <v>1.617308779401808</v>
+        <v>4.613589817189361</v>
       </c>
       <c r="J50">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="51" spans="2:10">
       <c r="B51">
-        <v>448.6017787548915</v>
+        <v>13665.04655664972</v>
       </c>
       <c r="C51">
-        <v>668.1676804771472</v>
+        <v>12239.60012558678</v>
       </c>
       <c r="D51">
-        <v>-1.28866943146124</v>
+        <v>-2.202628413276224</v>
       </c>
       <c r="E51">
-        <v>-0.1019551762461289</v>
+        <v>0.3627843045998794</v>
       </c>
       <c r="F51">
-        <v>1.027018284469297</v>
+        <v>-0.9372306705066377</v>
       </c>
       <c r="G51">
-        <v>332.1253163388361</v>
+        <v>11378.90639097181</v>
       </c>
       <c r="H51">
-        <v>577.8922170955364</v>
+        <v>12947.04764852788</v>
       </c>
       <c r="I51">
-        <v>1.455271973846253</v>
+        <v>4.337332350208229</v>
       </c>
       <c r="J51">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="52" spans="2:10">
       <c r="B52">
-        <v>429.2338914411391</v>
+        <v>15733.21425250486</v>
       </c>
       <c r="C52">
-        <v>685.4798450130354</v>
+        <v>12114.89450925062</v>
       </c>
       <c r="D52">
-        <v>-1.295691469275985</v>
+        <v>-2.211753734744286</v>
       </c>
       <c r="E52">
-        <v>-0.2748405143680088</v>
+        <v>0.5968217024153406</v>
       </c>
       <c r="F52">
-        <v>0.9858602568501776</v>
+        <v>-0.8179748483289578</v>
       </c>
       <c r="G52">
-        <v>336.3277807403566</v>
+        <v>11244.81605737804</v>
       </c>
       <c r="H52">
-        <v>614.1075470256518</v>
+        <v>12606.45058345458</v>
       </c>
       <c r="I52">
-        <v>1.293235168290697</v>
+        <v>4.061074883227096</v>
       </c>
       <c r="J52">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="53" spans="2:10">
       <c r="B53">
-        <v>392.2185675092136</v>
+        <v>13930.03772086305</v>
       </c>
       <c r="C53">
-        <v>736.4334819853677</v>
+        <v>9501.883414048643</v>
       </c>
       <c r="D53">
-        <v>-1.298614010909958</v>
+        <v>-2.206809555801859</v>
       </c>
       <c r="E53">
-        <v>-0.4163790579902144</v>
+        <v>0.7925659099004059</v>
       </c>
       <c r="F53">
-        <v>0.9243933110151746</v>
+        <v>-0.5933919088835061</v>
       </c>
       <c r="G53">
-        <v>346.3177667712827</v>
+        <v>11022.90981705383</v>
       </c>
       <c r="H53">
-        <v>649.1705048029852</v>
+        <v>12315.34201469541</v>
       </c>
       <c r="I53">
-        <v>1.131198362735141</v>
+        <v>3.784817416245964</v>
       </c>
       <c r="J53">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="54" spans="2:10">
       <c r="B54">
-        <v>367.9418613104777</v>
+        <v>11183.54702154316</v>
       </c>
       <c r="C54">
-        <v>784.1460784219109</v>
+        <v>8478.656499639226</v>
       </c>
       <c r="D54">
-        <v>-1.299934832418661</v>
+        <v>-2.218753028909919</v>
       </c>
       <c r="E54">
-        <v>-0.5866172078157348</v>
+        <v>0.9003220392285194</v>
       </c>
       <c r="F54">
-        <v>0.8147774455299331</v>
+        <v>-0.3663423539574805</v>
       </c>
       <c r="G54">
-        <v>361.8335514948362</v>
+        <v>10730.01571869833</v>
       </c>
       <c r="H54">
-        <v>682.16249251827</v>
+        <v>12095.79788371406</v>
       </c>
       <c r="I54">
-        <v>0.9691615571795859</v>
+        <v>3.508559949264832</v>
       </c>
       <c r="J54">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="55" spans="2:10">
       <c r="B55">
-        <v>399.7708819907695</v>
+        <v>10247.83011363711</v>
       </c>
       <c r="C55">
-        <v>855.6632299951187</v>
+        <v>8016.312406968205</v>
       </c>
       <c r="D55">
-        <v>-1.205075156554594</v>
+        <v>-2.040198902406614</v>
       </c>
       <c r="E55">
-        <v>-0.6352537714713279</v>
+        <v>0.9838420482460856</v>
       </c>
       <c r="F55">
-        <v>0.7594217029625909</v>
+        <v>-0.1442813997375051</v>
       </c>
       <c r="G55">
-        <v>380.9946976160174</v>
+        <v>10412.75033962325</v>
       </c>
       <c r="H55">
-        <v>710.0722466325964</v>
+        <v>11973.84795274712</v>
       </c>
       <c r="I55">
-        <v>0.8186983627351414</v>
+        <v>3.252034397378039</v>
       </c>
       <c r="J55">
-        <v>-1.203705555555555</v>
+        <v>-2.052204415094339</v>
       </c>
     </row>
     <row r="56" spans="2:10">
       <c r="B56">
-        <v>432.3182833757036</v>
+        <v>10395.23270888454</v>
       </c>
       <c r="C56">
-        <v>938.5628351514333</v>
+        <v>8032.018707213218</v>
       </c>
       <c r="D56">
-        <v>-1.109203602181101</v>
+        <v>-1.892846879782444</v>
       </c>
       <c r="E56">
-        <v>-0.7739782728821282</v>
+        <v>0.9959657937701843</v>
       </c>
       <c r="F56">
-        <v>0.6418877073770943</v>
+        <v>0.1393659815272193</v>
       </c>
       <c r="G56">
-        <v>402.3438324831135</v>
+        <v>10100.91185927166</v>
       </c>
       <c r="H56">
-        <v>732.8927843218478</v>
+        <v>11939.26725477831</v>
       </c>
       <c r="I56">
-        <v>0.6798094738462526</v>
+        <v>3.015241944547851</v>
       </c>
       <c r="J56">
-        <v>-1.111111111111111</v>
+        <v>-1.894339622641509</v>
       </c>
     </row>
     <row r="57" spans="2:10">
       <c r="B57">
-        <v>470.8469671584223</v>
+        <v>10748.05529112064</v>
       </c>
       <c r="C57">
-        <v>891.4763929346173</v>
+        <v>8927.409439483536</v>
       </c>
       <c r="D57">
-        <v>-1.023167804502775</v>
+        <v>-1.728123504915454</v>
       </c>
       <c r="E57">
-        <v>-0.8552038975238573</v>
+        <v>0.9551071532132073</v>
       </c>
       <c r="F57">
-        <v>0.5329906724738592</v>
+        <v>0.3551509674409068</v>
       </c>
       <c r="G57">
-        <v>424.6214904999338</v>
+        <v>9815.60026490022</v>
       </c>
       <c r="H57">
-        <v>750.9008468893484</v>
+        <v>11975.50964651054</v>
       </c>
       <c r="I57">
-        <v>0.5524948905129192</v>
+        <v>2.798182590774266</v>
       </c>
       <c r="J57">
-        <v>-1.018516666666667</v>
+        <v>-1.736474830188679</v>
       </c>
     </row>
     <row r="58" spans="2:10">
       <c r="B58">
-        <v>554.7632833137094</v>
+        <v>11496.80997173294</v>
       </c>
       <c r="C58">
-        <v>831.6914868668742</v>
+        <v>8929.267395242112</v>
       </c>
       <c r="D58">
-        <v>-0.9137414652941731</v>
+        <v>-1.573229771659441</v>
       </c>
       <c r="E58">
-        <v>-0.9296413115891831</v>
+        <v>0.8632306697671246</v>
       </c>
       <c r="F58">
-        <v>0.4008327147705751</v>
+        <v>0.514501763948468</v>
       </c>
       <c r="G58">
-        <v>446.7886124337243</v>
+        <v>9569.408065908878</v>
       </c>
       <c r="H58">
-        <v>764.5678350511795</v>
+        <v>12063.54263201538</v>
       </c>
       <c r="I58">
-        <v>0.436753918290697</v>
+        <v>2.60085515209502</v>
       </c>
       <c r="J58">
-        <v>-0.9259277777777777</v>
+        <v>-1.578619509433962</v>
       </c>
     </row>
     <row r="59" spans="2:10">
       <c r="B59">
-        <v>557.9547969994712</v>
+        <v>11897.40820661633</v>
       </c>
       <c r="C59">
-        <v>797.6304250911985</v>
+        <v>10467.0213541122</v>
       </c>
       <c r="D59">
-        <v>-0.8324397028553597</v>
+        <v>-1.417305740295027</v>
       </c>
       <c r="E59">
-        <v>-0.9431100545267037</v>
+        <v>0.7629717297792681</v>
       </c>
       <c r="F59">
-        <v>0.3186314163750154</v>
+        <v>0.6632937595802114</v>
       </c>
       <c r="G59">
-        <v>468.0260232555446</v>
+        <v>9367.667771572942</v>
       </c>
       <c r="H59">
-        <v>774.4819052463732</v>
+        <v>12184.6740742486</v>
       </c>
       <c r="I59">
-        <v>0.3325872516240303</v>
+        <v>2.423260812472379</v>
       </c>
       <c r="J59">
-        <v>-0.8333333333333334</v>
+        <v>-1.420754716981132</v>
       </c>
     </row>
     <row r="60" spans="2:10">
       <c r="B60">
-        <v>545.0046254341124</v>
+        <v>10203.15454542683</v>
       </c>
       <c r="C60">
-        <v>800.2104217938155</v>
+        <v>11265.17274419744</v>
       </c>
       <c r="D60">
-        <v>-0.7390897448139908</v>
+        <v>-1.2674665850763</v>
       </c>
       <c r="E60">
-        <v>-0.9579792462328799</v>
+        <v>0.659522629310731</v>
       </c>
       <c r="F60">
-        <v>0.1984798378860679</v>
+        <v>0.7697642899181268</v>
       </c>
       <c r="G60">
-        <v>487.7177163778723</v>
+        <v>9210.185138759314</v>
       </c>
       <c r="H60">
-        <v>781.2837751202929</v>
+        <v>12322.33292270099</v>
       </c>
       <c r="I60">
-        <v>0.2399948905129192</v>
+        <v>2.265399571906341</v>
       </c>
       <c r="J60">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="61" spans="2:10">
       <c r="B61">
-        <v>537.0685607165728</v>
+        <v>9482.120827213372</v>
       </c>
       <c r="C61">
-        <v>816.2888831142768</v>
+        <v>12760.84097774346</v>
       </c>
       <c r="D61">
-        <v>-0.6497300762449005</v>
+        <v>-1.116486032772203</v>
       </c>
       <c r="E61">
-        <v>-0.9947053677262924</v>
+        <v>0.5055634293661201</v>
       </c>
       <c r="F61">
-        <v>0.1727743686509713</v>
+        <v>0.8510352029797825</v>
       </c>
       <c r="G61">
-        <v>505.4244102327895</v>
+        <v>9093.037109893547</v>
       </c>
       <c r="H61">
-        <v>785.6168029664017</v>
+        <v>12462.94916104154</v>
       </c>
       <c r="I61">
-        <v>0.1589761405129192</v>
+        <v>2.127270246434643</v>
       </c>
       <c r="J61">
-        <v>-0.6481499999999999</v>
+        <v>-1.105034603773585</v>
       </c>
     </row>
     <row r="62" spans="2:10">
       <c r="B62">
-        <v>463.9579957361776</v>
+        <v>8281.790845545429</v>
       </c>
       <c r="C62">
-        <v>795.8567765239369</v>
+        <v>12458.51008545389</v>
       </c>
       <c r="D62">
-        <v>-0.5576844650424889</v>
+        <v>-0.9491092651136781</v>
       </c>
       <c r="E62">
-        <v>-0.9767763767482347</v>
+        <v>0.4303906158842089</v>
       </c>
       <c r="F62">
-        <v>0.07972116247724416</v>
+        <v>0.8941676573208124</v>
       </c>
       <c r="G62">
-        <v>520.8523771914629</v>
+        <v>9010.176454585146</v>
       </c>
       <c r="H62">
-        <v>788.0903551736698</v>
+        <v>12596.15530739696</v>
       </c>
       <c r="I62">
-        <v>0.08953169606847475</v>
+        <v>2.008874020019548</v>
       </c>
       <c r="J62">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="63" spans="2:10">
       <c r="B63">
-        <v>429.9004039812467</v>
+        <v>7824.66466889214</v>
       </c>
       <c r="C63">
-        <v>779.5523710195151</v>
+        <v>11498.9404608427</v>
       </c>
       <c r="D63">
-        <v>-0.409846597673805</v>
+        <v>-0.6995951076431934</v>
       </c>
       <c r="E63">
-        <v>-0.9834683207883672</v>
+        <v>0.3504675307302852</v>
       </c>
       <c r="F63">
-        <v>0.02524688420266649</v>
+        <v>0.9476475578418918</v>
       </c>
       <c r="G63">
-        <v>532.5241902494073</v>
+        <v>8960.266735821684</v>
       </c>
       <c r="H63">
-        <v>789.1381535812362</v>
+        <v>12702.70113386152</v>
       </c>
       <c r="I63">
-        <v>0.03744836273514141</v>
+        <v>1.920076850208227</v>
       </c>
       <c r="J63">
-        <v>-0.4166666666666667</v>
+        <v>-0.710377358490566</v>
       </c>
     </row>
     <row r="64" spans="2:10">
       <c r="B64">
-        <v>455.4669350036771</v>
+        <v>7463.136211781237</v>
       </c>
       <c r="C64">
-        <v>796.1646691408737</v>
+        <v>11707.39967255978</v>
       </c>
       <c r="D64">
-        <v>-0.2725882611662498</v>
+        <v>-0.4732995235140166</v>
       </c>
       <c r="E64">
-        <v>-0.9940480944588445</v>
+        <v>0.275185121533276</v>
       </c>
       <c r="F64">
-        <v>0.003849303172450105</v>
+        <v>0.9615711758868127</v>
       </c>
       <c r="G64">
-        <v>540.331212843196</v>
+        <v>8933.423708513939</v>
       </c>
       <c r="H64">
-        <v>789.4306505386099</v>
+        <v>12776.40251302911</v>
       </c>
       <c r="I64">
-        <v>0.002726140512919188</v>
+        <v>1.86087873700068</v>
       </c>
       <c r="J64">
-        <v>-0.2777777777777778</v>
+        <v>-0.4735849056603774</v>
       </c>
     </row>
     <row r="65" spans="2:10">
       <c r="B65">
-        <v>437.5555884728146</v>
+        <v>7406.364932359794</v>
       </c>
       <c r="C65">
-        <v>778.0857981273722</v>
+        <v>11856.94354463843</v>
       </c>
       <c r="D65">
-        <v>-0.1357550485588199</v>
+        <v>-0.2369859616280442</v>
       </c>
       <c r="E65">
-        <v>-0.9402528995025311</v>
+        <v>0.2206941031810429</v>
       </c>
       <c r="F65">
-        <v>-0.006356930165459592</v>
+        <v>0.9612921248683924</v>
       </c>
       <c r="G65">
-        <v>544.2374483278884</v>
+        <v>8922.205922655285</v>
       </c>
       <c r="H65">
-        <v>789.4412995117983</v>
+        <v>12813.98271568945</v>
       </c>
       <c r="I65">
-        <v>-0.01463497059819192</v>
+        <v>1.831279680396907</v>
       </c>
       <c r="J65">
-        <v>-0.1388888888888889</v>
+        <v>-0.2367924528301887</v>
       </c>
     </row>
     <row r="66" spans="2:10">
       <c r="B66">
-        <v>473.072311239011</v>
+        <v>7757.134751630802</v>
       </c>
       <c r="C66">
-        <v>796.1734762675809</v>
+        <v>11183.31783786142</v>
       </c>
       <c r="D66">
-        <v>0.002057653932710541</v>
+        <v>-0.007134587139832192</v>
       </c>
       <c r="E66">
-        <v>-0.9715037539055194</v>
+        <v>0.2873390742736446</v>
       </c>
       <c r="F66">
-        <v>-0.03102510708649577</v>
+        <v>0.9671152445811773</v>
       </c>
       <c r="G66">
-        <v>544.2374483278884</v>
+        <v>8922.205922655285</v>
       </c>
       <c r="H66">
-        <v>789.4412995117983</v>
+        <v>12813.98271568945</v>
       </c>
       <c r="I66">
-        <v>-0.01463497059819192</v>
+        <v>1.831279680396907</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -2294,463 +2294,463 @@
     </row>
     <row r="67" spans="2:10">
       <c r="B67">
-        <v>462.7763045712657</v>
+        <v>7429.379546527025</v>
       </c>
       <c r="C67">
-        <v>789.9952816698228</v>
+        <v>11237.47913191121</v>
       </c>
       <c r="D67">
-        <v>-0.1425497595294375</v>
+        <v>-0.2313955036270262</v>
       </c>
       <c r="E67">
-        <v>-1.014193120278136</v>
+        <v>0.2339529665018618</v>
       </c>
       <c r="F67">
-        <v>-0.002721993781158005</v>
+        <v>0.9726231786798352</v>
       </c>
       <c r="G67">
-        <v>548.1432800104243</v>
+        <v>8912.105226544363</v>
       </c>
       <c r="H67">
-        <v>789.3841336986017</v>
+        <v>12851.87844486355</v>
       </c>
       <c r="I67">
-        <v>-0.03199608170930304</v>
+        <v>1.801680623793133</v>
       </c>
       <c r="J67">
-        <v>-0.1388888888888889</v>
+        <v>-0.2367924528301887</v>
       </c>
     </row>
     <row r="68" spans="2:10">
       <c r="B68">
-        <v>487.287315808358</v>
+        <v>7246.93573412491</v>
       </c>
       <c r="C68">
-        <v>769.1812837277229</v>
+        <v>11136.41485080569</v>
       </c>
       <c r="D68">
-        <v>-0.2763511541854505</v>
+        <v>-0.4669140601894026</v>
       </c>
       <c r="E68">
-        <v>-0.934537992903858</v>
+        <v>0.1735120716147253</v>
       </c>
       <c r="F68">
-        <v>-0.08502739783961577</v>
+        <v>0.9809828258091813</v>
       </c>
       <c r="G68">
-        <v>555.9517813310915</v>
+        <v>8894.155711049478</v>
       </c>
       <c r="H68">
-        <v>789.13420695906</v>
+        <v>12928.23455987571</v>
       </c>
       <c r="I68">
-        <v>-0.06671830393152525</v>
+        <v>1.742482510585586</v>
       </c>
       <c r="J68">
-        <v>-0.2777777777777778</v>
+        <v>-0.4735849056603774</v>
       </c>
     </row>
     <row r="69" spans="2:10">
       <c r="B69">
-        <v>412.2775974325774</v>
+        <v>7204.941358814396</v>
       </c>
       <c r="C69">
-        <v>780.9588401110489</v>
+        <v>11135.84140688158</v>
       </c>
       <c r="D69">
-        <v>-0.4201511525281728</v>
+        <v>-0.7081390431845515</v>
       </c>
       <c r="E69">
-        <v>-1.011945128783394</v>
+        <v>0.101035778726884</v>
       </c>
       <c r="F69">
-        <v>-0.1276780158428112</v>
+        <v>0.9869509246941225</v>
       </c>
       <c r="G69">
-        <v>567.6444589807319</v>
+        <v>8874.054848459689</v>
       </c>
       <c r="H69">
-        <v>788.3529317552424</v>
+        <v>13044.16103867675</v>
       </c>
       <c r="I69">
-        <v>-0.1188016372648586</v>
+        <v>1.653685340774265</v>
       </c>
       <c r="J69">
-        <v>-0.4166666666666667</v>
+        <v>-0.710377358490566</v>
       </c>
     </row>
     <row r="70" spans="2:10">
       <c r="B70">
-        <v>449.8758803458474</v>
+        <v>6244.816355857927</v>
       </c>
       <c r="C70">
-        <v>828.7350091534315</v>
+        <v>11235.50673573049</v>
       </c>
       <c r="D70">
-        <v>-0.5602123777659297</v>
+        <v>-0.9499741204130705</v>
       </c>
       <c r="E70">
-        <v>-0.9805535782095657</v>
+        <v>-0.0475543219480825</v>
       </c>
       <c r="F70">
-        <v>-0.1699374486709115</v>
+        <v>1.008140577064015</v>
       </c>
       <c r="G70">
-        <v>583.1593243181509</v>
+        <v>8861.066519233182</v>
       </c>
       <c r="H70">
-        <v>786.5010196186236</v>
+        <v>13200.4974353632</v>
       </c>
       <c r="I70">
-        <v>-0.188246081709303</v>
+        <v>1.535289114359171</v>
       </c>
       <c r="J70">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="71" spans="2:10">
       <c r="B71">
-        <v>377.0289558643862</v>
+        <v>6539.890971265424</v>
       </c>
       <c r="C71">
-        <v>802.3118373536373</v>
+        <v>11365.14051000021</v>
       </c>
       <c r="D71">
-        <v>-0.557623161310505</v>
+        <v>-0.9538024763372832</v>
       </c>
       <c r="E71">
-        <v>-0.9954890098409019</v>
+        <v>-0.1409330435823763</v>
       </c>
       <c r="F71">
-        <v>-0.281183745934219</v>
+        <v>0.9885718966779249</v>
       </c>
       <c r="G71">
-        <v>598.5082925616346</v>
+        <v>8866.635542809547</v>
       </c>
       <c r="H71">
-        <v>783.5770157095067</v>
+        <v>13357.27355472264</v>
       </c>
       <c r="I71">
-        <v>-0.2576905261537475</v>
+        <v>1.416892887944076</v>
       </c>
       <c r="J71">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="72" spans="2:10">
       <c r="B72">
-        <v>429.3781727372684</v>
+        <v>6520.161831002493</v>
       </c>
       <c r="C72">
-        <v>810.9999647308761</v>
+        <v>11263.64662834573</v>
       </c>
       <c r="D72">
-        <v>-0.5551270263059456</v>
+        <v>-0.9441527844921245</v>
       </c>
       <c r="E72">
-        <v>-0.9563535227846852</v>
+        <v>-0.2492395968296928</v>
       </c>
       <c r="F72">
-        <v>-0.3021669466142753</v>
+        <v>0.9706845224889696</v>
       </c>
       <c r="G72">
-        <v>613.6173725806424</v>
+        <v>8890.683945621784</v>
       </c>
       <c r="H72">
-        <v>779.5950154609859</v>
+        <v>13512.29432735386</v>
       </c>
       <c r="I72">
-        <v>-0.327134970598192</v>
+        <v>1.298496661528982</v>
       </c>
       <c r="J72">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="73" spans="2:10">
       <c r="B73">
-        <v>395.8515632637836</v>
+        <v>6931.558754573743</v>
       </c>
       <c r="C73">
-        <v>870.8685426682666</v>
+        <v>11710.7366265709</v>
       </c>
       <c r="D73">
-        <v>-0.5586486536243149</v>
+        <v>-0.9398860372300938</v>
       </c>
       <c r="E73">
-        <v>-0.9370887570473434</v>
+        <v>-0.3898034164990273</v>
       </c>
       <c r="F73">
-        <v>-0.3693918806140299</v>
+        <v>0.8785914854920147</v>
       </c>
       <c r="G73">
-        <v>628.4137296481556</v>
+        <v>8932.875018779683</v>
       </c>
       <c r="H73">
-        <v>774.5742144760183</v>
+        <v>13663.38926099091</v>
       </c>
       <c r="I73">
-        <v>-0.3965794150426364</v>
+        <v>1.180100435113888</v>
       </c>
       <c r="J73">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="74" spans="2:10">
       <c r="B74">
-        <v>416.4245274956665</v>
+        <v>6749.631892008931</v>
       </c>
       <c r="C74">
-        <v>889.325250385614</v>
+        <v>12768.93728343911</v>
       </c>
       <c r="D74">
-        <v>-0.5439207668533157</v>
+        <v>-0.9437799983950994</v>
       </c>
       <c r="E74">
-        <v>-0.8367419756705958</v>
+        <v>-0.5101597220113551</v>
       </c>
       <c r="F74">
-        <v>-0.4033523782353136</v>
+        <v>0.8913069436543459</v>
       </c>
       <c r="G74">
-        <v>642.8260365472603</v>
+        <v>8992.618032431837</v>
       </c>
       <c r="H74">
-        <v>768.5388159932321</v>
+        <v>13808.44283021539</v>
       </c>
       <c r="I74">
-        <v>-0.4660238594870808</v>
+        <v>1.061704208698793</v>
       </c>
       <c r="J74">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="75" spans="2:10">
       <c r="B75">
-        <v>391.1164006584066</v>
+        <v>7456.020716289356</v>
       </c>
       <c r="C75">
-        <v>910.8935897323453</v>
+        <v>13635.64931287815</v>
       </c>
       <c r="D75">
-        <v>-0.5482938022537117</v>
+        <v>-0.9426690675480257</v>
       </c>
       <c r="E75">
-        <v>-0.8468214081296976</v>
+        <v>-0.5802317157288269</v>
       </c>
       <c r="F75">
-        <v>-0.5141410538084864</v>
+        <v>0.8361864886160486</v>
       </c>
       <c r="G75">
-        <v>656.784817410638</v>
+        <v>9069.076506751218</v>
       </c>
       <c r="H75">
-        <v>761.517914212962</v>
+        <v>13945.42409656138</v>
       </c>
       <c r="I75">
-        <v>-0.5354683039315252</v>
+        <v>0.9433079822836987</v>
       </c>
       <c r="J75">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="76" spans="2:10">
       <c r="B76">
-        <v>420.3081246179404</v>
+        <v>7996.721175886248</v>
       </c>
       <c r="C76">
-        <v>909.3346341266551</v>
+        <v>14876.4151171184</v>
       </c>
       <c r="D76">
-        <v>-0.5515177438455303</v>
+        <v>-0.9458820689333455</v>
       </c>
       <c r="E76">
-        <v>-0.7898614232743456</v>
+        <v>-0.6702091110942908</v>
       </c>
       <c r="F76">
-        <v>-0.5820590883225598</v>
+        <v>0.7250347041597109</v>
       </c>
       <c r="G76">
-        <v>670.2227826354524</v>
+        <v>9161.179923739757</v>
       </c>
       <c r="H76">
-        <v>753.5453540459467</v>
+        <v>14072.41514429324</v>
       </c>
       <c r="I76">
-        <v>-0.6049127483759696</v>
+        <v>0.8249117558686043</v>
       </c>
       <c r="J76">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="77" spans="2:10">
       <c r="B77">
-        <v>400.7853419328123</v>
+        <v>8874.80986648424</v>
       </c>
       <c r="C77">
-        <v>931.4093495472079</v>
+        <v>16668.5714255229</v>
       </c>
       <c r="D77">
-        <v>-0.5557002329522354</v>
+        <v>-0.9383274077651588</v>
       </c>
       <c r="E77">
-        <v>-0.808762039462725</v>
+        <v>-0.7661433604861326</v>
       </c>
       <c r="F77">
-        <v>-0.606322066335194</v>
+        <v>0.6830494690009388</v>
       </c>
       <c r="G77">
-        <v>683.0751532591456</v>
+        <v>9267.638715871453</v>
       </c>
       <c r="H77">
-        <v>744.6595679607865</v>
+        <v>14187.63793371817</v>
       </c>
       <c r="I77">
-        <v>-0.6743571928204141</v>
+        <v>0.7065155294535099</v>
       </c>
       <c r="J77">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="78" spans="2:10">
       <c r="B78">
-        <v>404.6493805013843</v>
+        <v>10392.72928153339</v>
       </c>
       <c r="C78">
-        <v>1008.993744153395</v>
+        <v>17027.19439442563</v>
       </c>
       <c r="D78">
-        <v>-0.5502818252306636</v>
+        <v>-0.9415117619435727</v>
       </c>
       <c r="E78">
-        <v>-0.7689696730364012</v>
+        <v>-0.8414253326477481</v>
       </c>
       <c r="F78">
-        <v>-0.6992556175709366</v>
+        <v>0.5722098289935372</v>
       </c>
       <c r="G78">
-        <v>695.2799732324584</v>
+        <v>9386.962321713525</v>
       </c>
       <c r="H78">
-        <v>734.9033907166489</v>
+        <v>14289.47919605248</v>
       </c>
       <c r="I78">
-        <v>-0.7438016372648585</v>
+        <v>0.5881193030384155</v>
       </c>
       <c r="J78">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="79" spans="2:10">
       <c r="B79">
-        <v>456.0376428210957</v>
+        <v>11926.70903771064</v>
       </c>
       <c r="C79">
-        <v>973.7033488249548</v>
+        <v>16508.20126955429</v>
       </c>
       <c r="D79">
-        <v>-0.4108904971138531</v>
+        <v>-0.7121436060957501</v>
       </c>
       <c r="E79">
-        <v>-0.6531457227435168</v>
+        <v>-0.8887386364549515</v>
       </c>
       <c r="F79">
-        <v>-0.7174833901795457</v>
+        <v>0.4844171085766327</v>
       </c>
       <c r="G79">
-        <v>703.903799371365</v>
+        <v>9484.850622220971</v>
       </c>
       <c r="H79">
-        <v>726.9687373349057</v>
+        <v>14354.75456497389</v>
       </c>
       <c r="I79">
-        <v>-0.7958849705981919</v>
+        <v>0.4993221332270948</v>
       </c>
       <c r="J79">
-        <v>-0.4166666666666667</v>
+        <v>-0.710377358490566</v>
       </c>
     </row>
     <row r="80" spans="2:10">
       <c r="B80">
-        <v>411.7556502118986</v>
+        <v>12107.81798342199</v>
       </c>
       <c r="C80">
-        <v>947.9454649963212</v>
+        <v>15923.89463728064</v>
       </c>
       <c r="D80">
-        <v>-0.2694469141178221</v>
+        <v>-0.4767462813990371</v>
       </c>
       <c r="E80">
-        <v>-0.6415500387464683</v>
+        <v>-0.868255026141039</v>
       </c>
       <c r="F80">
-        <v>-0.7557335910659235</v>
+        <v>0.4398958571765097</v>
       </c>
       <c r="G80">
-        <v>709.36983643074</v>
+        <v>9553.711479742038</v>
       </c>
       <c r="H80">
-        <v>721.3868384540999</v>
+        <v>14392.31283580354</v>
       </c>
       <c r="I80">
-        <v>-0.8306071928204141</v>
+        <v>0.4401240200195476</v>
       </c>
       <c r="J80">
-        <v>-0.2777777777777778</v>
+        <v>-0.4735849056603774</v>
       </c>
     </row>
     <row r="81" spans="2:10">
       <c r="B81">
-        <v>447.3460670778703</v>
+        <v>11312.98400090459</v>
       </c>
       <c r="C81">
-        <v>954.9396345694472</v>
+        <v>15914.43301399935</v>
       </c>
       <c r="D81">
-        <v>-0.1488564473285209</v>
+        <v>-0.2380398665072126</v>
       </c>
       <c r="E81">
-        <v>-0.6546171722831214</v>
+        <v>-0.9096238837971302</v>
       </c>
       <c r="F81">
-        <v>-0.7679163605525088</v>
+        <v>0.3704243405175116</v>
       </c>
       <c r="G81">
-        <v>712.0043191223831</v>
+        <v>9589.192637029784</v>
       </c>
       <c r="H81">
-        <v>718.5026938651564</v>
+        <v>14409.02204970141</v>
       </c>
       <c r="I81">
-        <v>-0.8479683039315252</v>
+        <v>0.410524963415774</v>
       </c>
       <c r="J81">
-        <v>-0.1388888888888889</v>
+        <v>-0.2367924528301887</v>
       </c>
     </row>
     <row r="82" spans="2:10">
       <c r="B82">
-        <v>447.0789907939541</v>
+        <v>11202.41740057319</v>
       </c>
       <c r="C82">
-        <v>951.8886663471347</v>
+        <v>15145.24888889782</v>
       </c>
       <c r="D82">
-        <v>-0.006574065940487863</v>
+        <v>-0.001018769339921147</v>
       </c>
       <c r="E82">
-        <v>-0.6535098646482478</v>
+        <v>-0.8573588173821066</v>
       </c>
       <c r="F82">
-        <v>-0.7546050782277754</v>
+        <v>0.4231059248359242</v>
       </c>
       <c r="G82">
-        <v>712.0043191223831</v>
+        <v>9589.192637029784</v>
       </c>
       <c r="H82">
-        <v>718.5026938651564</v>
+        <v>14409.02204970141</v>
       </c>
       <c r="I82">
-        <v>-0.8479683039315252</v>
+        <v>0.410524963415774</v>
       </c>
       <c r="J82">
         <v>0</v>
